--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -498,10 +498,10 @@
         <v>178.5249865757879</v>
       </c>
       <c r="H2" t="n">
-        <v>1.59666368698504</v>
+        <v>1.599888117875239</v>
       </c>
       <c r="I2" t="n">
-        <v>184.4650398795846</v>
+        <v>184.4650395855125</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         <v>225.7911175894448</v>
       </c>
       <c r="H3" t="n">
-        <v>1.335716003284408</v>
+        <v>1.338584830628243</v>
       </c>
       <c r="I3" t="n">
-        <v>772.0643912719911</v>
+        <v>772.0643765754551</v>
       </c>
     </row>
     <row r="4">
@@ -556,10 +556,10 @@
         <v>255.3445513010562</v>
       </c>
       <c r="H4" t="n">
-        <v>1.081881626217774</v>
+        <v>1.084394867160875</v>
       </c>
       <c r="I4" t="n">
-        <v>1756.57690867759</v>
+        <v>1757.375052629897</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>254.0379190689488</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8427356126800261</v>
+        <v>0.8449009933089182</v>
       </c>
       <c r="I5" t="n">
-        <v>2853.7056351729</v>
+        <v>2855.342316471564</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>264.3659765940366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.626277541854115</v>
+        <v>0.6280954765162314</v>
       </c>
       <c r="I6" t="n">
-        <v>3894.459464607475</v>
+        <v>3895.702141766698</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>274.6240170013279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4378527372809918</v>
+        <v>0.4393232259738128</v>
       </c>
       <c r="I7" t="n">
-        <v>4859.826309666121</v>
+        <v>4860.450963428641</v>
       </c>
     </row>
     <row r="8">
@@ -672,10 +672,10 @@
         <v>281.8638670414844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2809951764626925</v>
+        <v>0.2821182191827198</v>
       </c>
       <c r="I8" t="n">
-        <v>5754.913635775723</v>
+        <v>5755.26503004272</v>
       </c>
     </row>
     <row r="9">
@@ -701,10 +701,10 @@
         <v>292.506838946614</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1581720130458126</v>
+        <v>0.1589476098016619</v>
       </c>
       <c r="I9" t="n">
-        <v>6539.382821356696</v>
+        <v>6541.981872386496</v>
       </c>
     </row>
     <row r="10">
@@ -730,10 +730,10 @@
         <v>318.2694569947119</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0741547141950403</v>
+        <v>0.07458856892927967</v>
       </c>
       <c r="I10" t="n">
-        <v>7044.760451363776</v>
+        <v>7071.442541806184</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         <v>325.131279738785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01794588999902644</v>
+        <v>0.01794589000060624</v>
       </c>
       <c r="I11" t="n">
-        <v>106565844.3762093</v>
+        <v>7720.803155542391</v>
       </c>
     </row>
     <row r="12">
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.26716461401115</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>223633954.8941734</v>
+        <v>8199.573196182821</v>
       </c>
     </row>
     <row r="13">
@@ -817,10 +817,10 @@
         <v>324.9548535939426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01795792797203687</v>
+        <v>0.01795792797320259</v>
       </c>
       <c r="I13" t="n">
-        <v>124022597.6883488</v>
+        <v>7725.455441896887</v>
       </c>
     </row>
     <row r="14">
@@ -846,10 +846,10 @@
         <v>318.1306192594234</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07421351042206027</v>
+        <v>0.07464757661164206</v>
       </c>
       <c r="I14" t="n">
-        <v>7050.462977316781</v>
+        <v>7077.196509225749</v>
       </c>
     </row>
     <row r="15">
@@ -875,10 +875,10 @@
         <v>292.5700392626777</v>
       </c>
       <c r="H15" t="n">
-        <v>0.158323800591308</v>
+        <v>0.159099859609042</v>
       </c>
       <c r="I15" t="n">
-        <v>6544.565282955722</v>
+        <v>6547.167989861556</v>
       </c>
     </row>
     <row r="16">
@@ -904,10 +904,10 @@
         <v>281.8553683393242</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2812877959183368</v>
+        <v>0.2824115804686468</v>
       </c>
       <c r="I16" t="n">
-        <v>5759.296804848693</v>
+        <v>5759.648786103518</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>274.6800067155589</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4383290201790652</v>
+        <v>0.4398005302673977</v>
       </c>
       <c r="I17" t="n">
-        <v>4863.56963682796</v>
+        <v>4864.195294012565</v>
       </c>
     </row>
     <row r="18">
@@ -962,10 +962,10 @@
         <v>264.4084488048317</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6269774468348133</v>
+        <v>0.6287966824541369</v>
       </c>
       <c r="I18" t="n">
-        <v>3897.488194061663</v>
+        <v>3898.732837002</v>
       </c>
     </row>
     <row r="19">
@@ -991,10 +991,10 @@
         <v>254.1060502862658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.843694841879577</v>
+        <v>0.8458618030216615</v>
       </c>
       <c r="I19" t="n">
-        <v>2855.955788791732</v>
+        <v>2857.595032769917</v>
       </c>
     </row>
     <row r="20">
@@ -1020,10 +1020,10 @@
         <v>255.3735262084208</v>
       </c>
       <c r="H20" t="n">
-        <v>1.083131926431036</v>
+        <v>1.085647051131332</v>
       </c>
       <c r="I20" t="n">
-        <v>1757.989894002618</v>
+        <v>1758.78924356894</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>225.8431020026576</v>
       </c>
       <c r="H21" t="n">
-        <v>1.337274152508801</v>
+        <v>1.34014523953027</v>
       </c>
       <c r="I21" t="n">
-        <v>772.6963608858647</v>
+        <v>772.6963322161387</v>
       </c>
     </row>
     <row r="22">
@@ -1078,10 +1078,10 @@
         <v>178.581944990265</v>
       </c>
       <c r="H22" t="n">
-        <v>1.598526408651044</v>
+        <v>1.601753457991197</v>
       </c>
       <c r="I22" t="n">
-        <v>184.6031368624235</v>
+        <v>184.6031368623365</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -498,10 +498,10 @@
         <v>178.5249865757879</v>
       </c>
       <c r="H2" t="n">
-        <v>1.599888117875239</v>
+        <v>1.599888117875196</v>
       </c>
       <c r="I2" t="n">
-        <v>184.4650395855125</v>
+        <v>184.4650395855707</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         <v>225.7911175894448</v>
       </c>
       <c r="H3" t="n">
-        <v>1.338584830628243</v>
+        <v>1.338584830628194</v>
       </c>
       <c r="I3" t="n">
-        <v>772.0643765754551</v>
+        <v>772.0643765756591</v>
       </c>
     </row>
     <row r="4">
@@ -556,10 +556,10 @@
         <v>255.3445513010562</v>
       </c>
       <c r="H4" t="n">
-        <v>1.084394867160875</v>
+        <v>1.084394867160823</v>
       </c>
       <c r="I4" t="n">
-        <v>1757.375052629897</v>
+        <v>1757.375052630352</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>254.0379190689488</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8449009933089182</v>
+        <v>0.8449009933088664</v>
       </c>
       <c r="I5" t="n">
-        <v>2855.342316471564</v>
+        <v>2855.34231647218</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>264.3659765940366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6280954765162314</v>
+        <v>0.6280954765161854</v>
       </c>
       <c r="I6" t="n">
-        <v>3895.702141766698</v>
+        <v>3895.702141767176</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>274.6240170013279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4393232259738128</v>
+        <v>0.4393232259737764</v>
       </c>
       <c r="I7" t="n">
-        <v>4860.450963428641</v>
+        <v>4860.450963428842</v>
       </c>
     </row>
     <row r="8">
@@ -672,10 +672,10 @@
         <v>281.8638670414844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2821182191827198</v>
+        <v>0.2821182191826943</v>
       </c>
       <c r="I8" t="n">
-        <v>5755.26503004272</v>
+        <v>5755.265030042609</v>
       </c>
     </row>
     <row r="9">
@@ -701,10 +701,10 @@
         <v>292.506838946614</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1589476098016619</v>
+        <v>0.1589476098016466</v>
       </c>
       <c r="I9" t="n">
-        <v>6541.981872386496</v>
+        <v>6541.981872386104</v>
       </c>
     </row>
     <row r="10">
@@ -730,10 +730,10 @@
         <v>318.2694569947119</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07458856892927967</v>
+        <v>0.07458856892927221</v>
       </c>
       <c r="I10" t="n">
-        <v>7071.442541806184</v>
+        <v>7071.4425418056</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         <v>325.131279738785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01794589000060624</v>
+        <v>0.0179458900006044</v>
       </c>
       <c r="I11" t="n">
-        <v>7720.803155542391</v>
+        <v>7720.803155541638</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8199.573196182821</v>
+        <v>8199.573196183204</v>
       </c>
     </row>
     <row r="13">
@@ -817,10 +817,10 @@
         <v>324.9548535939426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01795792797320259</v>
+        <v>0.01795792797320604</v>
       </c>
       <c r="I13" t="n">
-        <v>7725.455441896887</v>
+        <v>7725.455441898467</v>
       </c>
     </row>
     <row r="14">
@@ -846,10 +846,10 @@
         <v>318.1306192594234</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07464757661164206</v>
+        <v>0.0746475766116569</v>
       </c>
       <c r="I14" t="n">
-        <v>7077.196509225749</v>
+        <v>7077.196509227289</v>
       </c>
     </row>
     <row r="15">
@@ -875,10 +875,10 @@
         <v>292.5700392626777</v>
       </c>
       <c r="H15" t="n">
-        <v>0.159099859609042</v>
+        <v>0.1590998596090746</v>
       </c>
       <c r="I15" t="n">
-        <v>6547.167989861556</v>
+        <v>6547.167989862986</v>
       </c>
     </row>
     <row r="16">
@@ -904,10 +904,10 @@
         <v>281.8553683393242</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2824115804686468</v>
+        <v>0.2824115804687056</v>
       </c>
       <c r="I16" t="n">
-        <v>5759.648786103518</v>
+        <v>5759.648786104647</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>274.6800067155589</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4398005302673977</v>
+        <v>0.4398005302674896</v>
       </c>
       <c r="I17" t="n">
-        <v>4864.195294012565</v>
+        <v>4864.195294013293</v>
       </c>
     </row>
     <row r="18">
@@ -962,10 +962,10 @@
         <v>264.4084488048317</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6287966824541369</v>
+        <v>0.6287966824542661</v>
       </c>
       <c r="I18" t="n">
-        <v>3898.732837002</v>
+        <v>3898.732837002511</v>
       </c>
     </row>
     <row r="19">
@@ -991,10 +991,10 @@
         <v>254.1060502862658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8458618030216615</v>
+        <v>0.8458618030218319</v>
       </c>
       <c r="I19" t="n">
-        <v>2857.595032769917</v>
+        <v>2857.595032770256</v>
       </c>
     </row>
     <row r="20">
@@ -1020,10 +1020,10 @@
         <v>255.3735262084208</v>
       </c>
       <c r="H20" t="n">
-        <v>1.085647051131332</v>
+        <v>1.085647051131546</v>
       </c>
       <c r="I20" t="n">
-        <v>1758.78924356894</v>
+        <v>1758.789243568915</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>225.8431020026576</v>
       </c>
       <c r="H21" t="n">
-        <v>1.34014523953027</v>
+        <v>1.340145239530527</v>
       </c>
       <c r="I21" t="n">
-        <v>772.6963322161387</v>
+        <v>772.696332215841</v>
       </c>
     </row>
     <row r="22">
@@ -1078,10 +1078,10 @@
         <v>178.581944990265</v>
       </c>
       <c r="H22" t="n">
-        <v>1.601753457991197</v>
+        <v>1.601753457991494</v>
       </c>
       <c r="I22" t="n">
-        <v>184.6031368623365</v>
+        <v>184.6031368624181</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -495,13 +495,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G2" t="n">
-        <v>178.5249865757879</v>
+        <v>182.037728521822</v>
       </c>
       <c r="H2" t="n">
-        <v>1.599888117875196</v>
+        <v>1.629390919070232</v>
       </c>
       <c r="I2" t="n">
-        <v>184.4650395855707</v>
+        <v>188.0946608199111</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +524,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G3" t="n">
-        <v>225.7911175894448</v>
+        <v>229.4885314165735</v>
       </c>
       <c r="H3" t="n">
-        <v>1.338584830628194</v>
+        <v>1.363305902670654</v>
       </c>
       <c r="I3" t="n">
-        <v>772.0643765756591</v>
+        <v>786.668447817206</v>
       </c>
     </row>
     <row r="4">
@@ -553,13 +553,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G4" t="n">
-        <v>255.3445513010562</v>
+        <v>259.454709063783</v>
       </c>
       <c r="H4" t="n">
-        <v>1.084394867160823</v>
+        <v>1.104470436382205</v>
       </c>
       <c r="I4" t="n">
-        <v>1757.375052630352</v>
+        <v>1789.368867282141</v>
       </c>
     </row>
     <row r="5">
@@ -582,13 +582,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G5" t="n">
-        <v>254.0379190689488</v>
+        <v>258.6523157978416</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8449009933088664</v>
+        <v>0.8605996726748919</v>
       </c>
       <c r="I5" t="n">
-        <v>2855.34231647218</v>
+        <v>2906.103284046485</v>
       </c>
     </row>
     <row r="6">
@@ -611,13 +611,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G6" t="n">
-        <v>264.3659765940366</v>
+        <v>269.5417628623765</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6280954765161854</v>
+        <v>0.6398203285876696</v>
       </c>
       <c r="I6" t="n">
-        <v>3895.702141767176</v>
+        <v>3964.541130014195</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G7" t="n">
-        <v>274.6240170013279</v>
+        <v>280.3708256281046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4393232259737764</v>
+        <v>0.4475690519991801</v>
       </c>
       <c r="I7" t="n">
-        <v>4860.450963428842</v>
+        <v>4946.85653548623</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G8" t="n">
-        <v>281.8638670414844</v>
+        <v>288.1816979825904</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2821182191826943</v>
+        <v>0.2874455093669098</v>
       </c>
       <c r="I8" t="n">
-        <v>5755.265030042609</v>
+        <v>5858.897351525151</v>
       </c>
     </row>
     <row r="9">
@@ -698,13 +698,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G9" t="n">
-        <v>292.506838946614</v>
+        <v>299.2435894503278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1589476098016466</v>
+        <v>0.1619684655472013</v>
       </c>
       <c r="I9" t="n">
-        <v>6541.981872386104</v>
+        <v>6661.702386939596</v>
       </c>
     </row>
     <row r="10">
@@ -727,13 +727,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G10" t="n">
-        <v>318.2694569947119</v>
+        <v>325.9486773385217</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07458856892927221</v>
+        <v>0.07601505426264284</v>
       </c>
       <c r="I10" t="n">
-        <v>7071.4425418056</v>
+        <v>7203.197422787299</v>
       </c>
     </row>
     <row r="11">
@@ -756,13 +756,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G11" t="n">
-        <v>325.131279738785</v>
+        <v>333.6106444090253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0179458900006044</v>
+        <v>0.01829149048275588</v>
       </c>
       <c r="I11" t="n">
-        <v>7720.803155541638</v>
+        <v>7867.595261737532</v>
       </c>
     </row>
     <row r="12">
@@ -785,13 +785,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>8.470200626034966</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8199.573196183204</v>
+        <v>8356.944837219331</v>
       </c>
     </row>
     <row r="13">
@@ -814,13 +814,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G13" t="n">
-        <v>324.9548535939426</v>
+        <v>333.4331779661332</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01795792797320604</v>
+        <v>0.01830366711353144</v>
       </c>
       <c r="I13" t="n">
-        <v>7725.455441898467</v>
+        <v>7872.293604099618</v>
       </c>
     </row>
     <row r="14">
@@ -843,13 +843,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G14" t="n">
-        <v>318.1306192594234</v>
+        <v>325.8087015187988</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0746475766116569</v>
+        <v>0.0760747891436987</v>
       </c>
       <c r="I14" t="n">
-        <v>7077.196509227289</v>
+        <v>7209.017943232055</v>
       </c>
     </row>
     <row r="15">
@@ -872,13 +872,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G15" t="n">
-        <v>292.5700392626777</v>
+        <v>299.3060619811889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1590998596090746</v>
+        <v>0.1621227304659342</v>
       </c>
       <c r="I15" t="n">
-        <v>6547.167989862986</v>
+        <v>6666.945052505068</v>
       </c>
     </row>
     <row r="16">
@@ -901,13 +901,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G16" t="n">
-        <v>281.8553683393242</v>
+        <v>288.1724663567009</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2824115804687056</v>
+        <v>0.2877428234456305</v>
       </c>
       <c r="I16" t="n">
-        <v>5759.648786104647</v>
+        <v>5863.325830864203</v>
       </c>
     </row>
     <row r="17">
@@ -930,13 +930,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6800067155589</v>
+        <v>280.4261488114594</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4398005302674896</v>
+        <v>0.4480528141745552</v>
       </c>
       <c r="I17" t="n">
-        <v>4864.195294013293</v>
+        <v>4950.638247039935</v>
       </c>
     </row>
     <row r="18">
@@ -959,13 +959,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G18" t="n">
-        <v>264.4084488048317</v>
+        <v>269.5836349241219</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6287966824542661</v>
+        <v>0.6405310175233927</v>
       </c>
       <c r="I18" t="n">
-        <v>3898.732837002511</v>
+        <v>3967.601698374295</v>
       </c>
     </row>
     <row r="19">
@@ -988,13 +988,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G19" t="n">
-        <v>254.1060502862658</v>
+        <v>258.7199342982518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8458618030218319</v>
+        <v>0.86157345003208</v>
       </c>
       <c r="I19" t="n">
-        <v>2857.595032770256</v>
+        <v>2908.378061680755</v>
       </c>
     </row>
     <row r="20">
@@ -1017,13 +1017,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G20" t="n">
-        <v>255.3735262084208</v>
+        <v>259.483229002019</v>
       </c>
       <c r="H20" t="n">
-        <v>1.085647051131546</v>
+        <v>1.105739495491911</v>
       </c>
       <c r="I20" t="n">
-        <v>1758.789243568915</v>
+        <v>1790.796869979239</v>
       </c>
     </row>
     <row r="21">
@@ -1046,13 +1046,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G21" t="n">
-        <v>225.8431020026576</v>
+        <v>229.5400015250087</v>
       </c>
       <c r="H21" t="n">
-        <v>1.340145239530527</v>
+        <v>1.364887299784169</v>
       </c>
       <c r="I21" t="n">
-        <v>772.696332215841</v>
+        <v>787.3066118836844</v>
       </c>
     </row>
     <row r="22">
@@ -1075,13 +1075,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G22" t="n">
-        <v>178.581944990265</v>
+        <v>182.0943983628116</v>
       </c>
       <c r="H22" t="n">
-        <v>1.601753457991494</v>
+        <v>1.631281254108644</v>
       </c>
       <c r="I22" t="n">
-        <v>184.6031368624181</v>
+        <v>188.2340185324569</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -495,13 +495,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G2" t="n">
-        <v>182.037728521822</v>
+        <v>175.0122446297537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.629390919070232</v>
+        <v>1.570385316679309</v>
       </c>
       <c r="I2" t="n">
-        <v>188.0946608199111</v>
+        <v>180.8354183511697</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +524,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G3" t="n">
-        <v>229.4885314165735</v>
+        <v>222.093703762316</v>
       </c>
       <c r="H3" t="n">
-        <v>1.363305902670654</v>
+        <v>1.313863758585013</v>
       </c>
       <c r="I3" t="n">
-        <v>786.668447817206</v>
+        <v>757.4603053344842</v>
       </c>
     </row>
     <row r="4">
@@ -553,13 +553,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G4" t="n">
-        <v>259.454709063783</v>
+        <v>251.2343935383294</v>
       </c>
       <c r="H4" t="n">
-        <v>1.104470436382205</v>
+        <v>1.064319297938854</v>
       </c>
       <c r="I4" t="n">
-        <v>1789.368867282141</v>
+        <v>1725.381238241695</v>
       </c>
     </row>
     <row r="5">
@@ -582,13 +582,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G5" t="n">
-        <v>258.6523157978416</v>
+        <v>249.423522340056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8605996726748919</v>
+        <v>0.8292023139423903</v>
       </c>
       <c r="I5" t="n">
-        <v>2906.103284046485</v>
+        <v>2804.581349573278</v>
       </c>
     </row>
     <row r="6">
@@ -611,13 +611,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G6" t="n">
-        <v>269.5417628623765</v>
+        <v>259.1901903256966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6398203285876696</v>
+        <v>0.6163706244443756</v>
       </c>
       <c r="I6" t="n">
-        <v>3964.541130014195</v>
+        <v>3826.863154164561</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G7" t="n">
-        <v>280.3708256281046</v>
+        <v>268.8772083745512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4475690519991801</v>
+        <v>0.4310773999481527</v>
       </c>
       <c r="I7" t="n">
-        <v>4946.85653548623</v>
+        <v>4774.04539166473</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G8" t="n">
-        <v>288.1816979825904</v>
+        <v>275.5460361003784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2874455093669098</v>
+        <v>0.2767909289983425</v>
       </c>
       <c r="I8" t="n">
-        <v>5858.897351525151</v>
+        <v>5651.632708628164</v>
       </c>
     </row>
     <row r="9">
@@ -698,13 +698,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G9" t="n">
-        <v>299.2435894503278</v>
+        <v>285.7700884429001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1619684655472013</v>
+        <v>0.1559267540560175</v>
       </c>
       <c r="I9" t="n">
-        <v>6661.702386939596</v>
+        <v>6422.261358150013</v>
       </c>
     </row>
     <row r="10">
@@ -727,13 +727,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G10" t="n">
-        <v>325.9486773385217</v>
+        <v>310.5902366509021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07601505426264284</v>
+        <v>0.07316208359586752</v>
       </c>
       <c r="I10" t="n">
-        <v>7203.197422787299</v>
+        <v>6939.687666984149</v>
       </c>
     </row>
     <row r="11">
@@ -756,13 +756,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G11" t="n">
-        <v>333.6106444090253</v>
+        <v>316.6519150685446</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01829149048275588</v>
+        <v>0.01760028951844495</v>
       </c>
       <c r="I11" t="n">
-        <v>7867.595261737532</v>
+        <v>7574.011062907172</v>
       </c>
     </row>
     <row r="12">
@@ -785,13 +785,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G12" t="n">
-        <v>8.470200626034966</v>
+        <v>-8.470200626034966</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8356.944837219331</v>
+        <v>8042.2015705964</v>
       </c>
     </row>
     <row r="13">
@@ -814,13 +814,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G13" t="n">
-        <v>333.4331779661332</v>
+        <v>316.4765292217521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01830366711353144</v>
+        <v>0.01761218883289479</v>
       </c>
       <c r="I13" t="n">
-        <v>7872.293604099618</v>
+        <v>7578.617293307808</v>
       </c>
     </row>
     <row r="14">
@@ -843,13 +843,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G14" t="n">
-        <v>325.8087015187988</v>
+        <v>310.4525370000481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0760747891436987</v>
+        <v>0.07322036407967489</v>
       </c>
       <c r="I14" t="n">
-        <v>7209.017943232055</v>
+        <v>6945.375081411192</v>
       </c>
     </row>
     <row r="15">
@@ -872,13 +872,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G15" t="n">
-        <v>299.3060619811889</v>
+        <v>285.8340165441664</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1621227304659342</v>
+        <v>0.1560769887523443</v>
       </c>
       <c r="I15" t="n">
-        <v>6666.945052505068</v>
+        <v>6427.390927548613</v>
       </c>
     </row>
     <row r="16">
@@ -901,13 +901,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G16" t="n">
-        <v>288.1724663567009</v>
+        <v>275.5382703219476</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2877428234456305</v>
+        <v>0.2770803374920145</v>
       </c>
       <c r="I16" t="n">
-        <v>5863.325830864203</v>
+        <v>5655.971741422171</v>
       </c>
     </row>
     <row r="17">
@@ -930,13 +930,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G17" t="n">
-        <v>280.4261488114594</v>
+        <v>268.9338646196583</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4480528141745552</v>
+        <v>0.4315482463607944</v>
       </c>
       <c r="I17" t="n">
-        <v>4950.638247039935</v>
+        <v>4777.752341287575</v>
       </c>
     </row>
     <row r="18">
@@ -959,13 +959,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G18" t="n">
-        <v>269.5836349241219</v>
+        <v>259.2332626855415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6405310175233927</v>
+        <v>0.6170623473856787</v>
       </c>
       <c r="I18" t="n">
-        <v>3967.601698374295</v>
+        <v>3829.863976280421</v>
       </c>
     </row>
     <row r="19">
@@ -988,13 +988,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G19" t="n">
-        <v>258.7199342982518</v>
+        <v>249.4921662742798</v>
       </c>
       <c r="H19" t="n">
-        <v>0.86157345003208</v>
+        <v>0.8301501560123178</v>
       </c>
       <c r="I19" t="n">
-        <v>2908.378061680755</v>
+        <v>2806.812004537876</v>
       </c>
     </row>
     <row r="20">
@@ -1017,13 +1017,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G20" t="n">
-        <v>259.483229002019</v>
+        <v>251.2638234148226</v>
       </c>
       <c r="H20" t="n">
-        <v>1.105739495491911</v>
+        <v>1.065554606772127</v>
       </c>
       <c r="I20" t="n">
-        <v>1790.796869979239</v>
+        <v>1726.781617422622</v>
       </c>
     </row>
     <row r="21">
@@ -1046,13 +1046,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G21" t="n">
-        <v>229.5400015250087</v>
+        <v>222.1462024803066</v>
       </c>
       <c r="H21" t="n">
-        <v>1.364887299784169</v>
+        <v>1.315403179278054</v>
       </c>
       <c r="I21" t="n">
-        <v>787.3066118836844</v>
+        <v>758.0860525485501</v>
       </c>
     </row>
     <row r="22">
@@ -1075,13 +1075,13 @@
         <v>0.050000027</v>
       </c>
       <c r="G22" t="n">
-        <v>182.0943983628116</v>
+        <v>175.0694916177185</v>
       </c>
       <c r="H22" t="n">
-        <v>1.631281254108644</v>
+        <v>1.572225661875739</v>
       </c>
       <c r="I22" t="n">
-        <v>188.2340185324569</v>
+        <v>180.9722551925083</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -498,10 +498,10 @@
         <v>175.0122446297537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.570385316679309</v>
+        <v>1.570385316679004</v>
       </c>
       <c r="I2" t="n">
-        <v>180.8354183511697</v>
+        <v>180.8354183511236</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         <v>222.093703762316</v>
       </c>
       <c r="H3" t="n">
-        <v>1.313863758585013</v>
+        <v>1.313863758584773</v>
       </c>
       <c r="I3" t="n">
-        <v>757.4603053344842</v>
+        <v>757.4603053342191</v>
       </c>
     </row>
     <row r="4">
@@ -556,10 +556,10 @@
         <v>251.2343935383294</v>
       </c>
       <c r="H4" t="n">
-        <v>1.064319297938854</v>
+        <v>1.064319297938676</v>
       </c>
       <c r="I4" t="n">
-        <v>1725.381238241695</v>
+        <v>1725.381238240946</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>249.423522340056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8292023139423903</v>
+        <v>0.8292023139422671</v>
       </c>
       <c r="I5" t="n">
-        <v>2804.581349573278</v>
+        <v>2804.581349572092</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>259.1901903256966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6163706244443756</v>
+        <v>0.6163706244442982</v>
       </c>
       <c r="I6" t="n">
-        <v>3826.863154164561</v>
+        <v>3826.863154162942</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>268.8772083745512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4310773999481527</v>
+        <v>0.4310773999481093</v>
       </c>
       <c r="I7" t="n">
-        <v>4774.04539166473</v>
+        <v>4774.045391662922</v>
       </c>
     </row>
     <row r="8">
@@ -672,10 +672,10 @@
         <v>275.5460361003784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2767909289983425</v>
+        <v>0.2767909289983213</v>
       </c>
       <c r="I8" t="n">
-        <v>5651.632708628164</v>
+        <v>5651.632708626566</v>
       </c>
     </row>
     <row r="9">
@@ -701,10 +701,10 @@
         <v>285.7700884429001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1559267540560175</v>
+        <v>0.1559267540560089</v>
       </c>
       <c r="I9" t="n">
-        <v>6422.261358150013</v>
+        <v>6422.261358148798</v>
       </c>
     </row>
     <row r="10">
@@ -730,10 +730,10 @@
         <v>310.5902366509021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07316208359586752</v>
+        <v>0.07316208359586489</v>
       </c>
       <c r="I10" t="n">
-        <v>6939.687666984149</v>
+        <v>6939.687666983355</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         <v>316.6519150685446</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01760028951844495</v>
+        <v>0.01760028951844459</v>
       </c>
       <c r="I11" t="n">
-        <v>7574.011062907172</v>
+        <v>7574.011062906781</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8042.2015705964</v>
+        <v>8042.201570596136</v>
       </c>
     </row>
     <row r="13">
@@ -817,10 +817,10 @@
         <v>316.4765292217521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01761218883289479</v>
+        <v>0.01761218883289411</v>
       </c>
       <c r="I13" t="n">
-        <v>7578.617293307808</v>
+        <v>7578.617293307429</v>
       </c>
     </row>
     <row r="14">
@@ -846,10 +846,10 @@
         <v>310.4525370000481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07322036407967489</v>
+        <v>0.07322036407967164</v>
       </c>
       <c r="I14" t="n">
-        <v>6945.375081411192</v>
+        <v>6945.375081410706</v>
       </c>
     </row>
     <row r="15">
@@ -875,10 +875,10 @@
         <v>285.8340165441664</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1560769887523443</v>
+        <v>0.1560769887523364</v>
       </c>
       <c r="I15" t="n">
-        <v>6427.390927548613</v>
+        <v>6427.390927548037</v>
       </c>
     </row>
     <row r="16">
@@ -904,10 +904,10 @@
         <v>275.5382703219476</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2770803374920145</v>
+        <v>0.2770803374919985</v>
       </c>
       <c r="I16" t="n">
-        <v>5655.971741422171</v>
+        <v>5655.971741421592</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>268.9338646196583</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4315482463607944</v>
+        <v>0.4315482463607668</v>
       </c>
       <c r="I17" t="n">
-        <v>4777.752341287575</v>
+        <v>4777.752341286987</v>
       </c>
     </row>
     <row r="18">
@@ -962,10 +962,10 @@
         <v>259.2332626855415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6170623473856787</v>
+        <v>0.6170623473856358</v>
       </c>
       <c r="I18" t="n">
-        <v>3829.863976280421</v>
+        <v>3829.863976279769</v>
       </c>
     </row>
     <row r="19">
@@ -991,10 +991,10 @@
         <v>249.4921662742798</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8301501560123178</v>
+        <v>0.8301501560122549</v>
       </c>
       <c r="I19" t="n">
-        <v>2806.812004537876</v>
+        <v>2806.812004537444</v>
       </c>
     </row>
     <row r="20">
@@ -1020,10 +1020,10 @@
         <v>251.2638234148226</v>
       </c>
       <c r="H20" t="n">
-        <v>1.065554606772127</v>
+        <v>1.06555460677204</v>
       </c>
       <c r="I20" t="n">
-        <v>1726.781617422622</v>
+        <v>1726.781617422525</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>222.1462024803066</v>
       </c>
       <c r="H21" t="n">
-        <v>1.315403179278054</v>
+        <v>1.315403179277943</v>
       </c>
       <c r="I21" t="n">
-        <v>758.0860525485501</v>
+        <v>758.0860525484915</v>
       </c>
     </row>
     <row r="22">
@@ -1078,10 +1078,10 @@
         <v>175.0694916177185</v>
       </c>
       <c r="H22" t="n">
-        <v>1.572225661875739</v>
+        <v>1.572225661875605</v>
       </c>
       <c r="I22" t="n">
-        <v>180.9722551925083</v>
+        <v>180.9722551925173</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -498,10 +498,10 @@
         <v>175.0122446297537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.570385316679004</v>
+        <v>1.570385316679525</v>
       </c>
       <c r="I2" t="n">
-        <v>180.8354183511236</v>
+        <v>180.8354183512872</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         <v>222.093703762316</v>
       </c>
       <c r="H3" t="n">
-        <v>1.313863758584773</v>
+        <v>1.313863758585202</v>
       </c>
       <c r="I3" t="n">
-        <v>757.4603053342191</v>
+        <v>757.4603053344654</v>
       </c>
     </row>
     <row r="4">
@@ -556,10 +556,10 @@
         <v>251.2343935383294</v>
       </c>
       <c r="H4" t="n">
-        <v>1.064319297938676</v>
+        <v>1.064319297939017</v>
       </c>
       <c r="I4" t="n">
-        <v>1725.381238240946</v>
+        <v>1725.381238241533</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>249.423522340056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8292023139422671</v>
+        <v>0.8292023139425243</v>
       </c>
       <c r="I5" t="n">
-        <v>2804.581349572092</v>
+        <v>2804.581349573165</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>259.1901903256966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6163706244442982</v>
+        <v>0.61637062444448</v>
       </c>
       <c r="I6" t="n">
-        <v>3826.863154162942</v>
+        <v>3826.863154164696</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>268.8772083745512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4310773999481093</v>
+        <v>0.4310773999482284</v>
       </c>
       <c r="I7" t="n">
-        <v>4774.045391662922</v>
+        <v>4774.045391665164</v>
       </c>
     </row>
     <row r="8">
@@ -672,10 +672,10 @@
         <v>275.5460361003784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2767909289983213</v>
+        <v>0.2767909289983929</v>
       </c>
       <c r="I8" t="n">
-        <v>5651.632708626566</v>
+        <v>5651.632708628881</v>
       </c>
     </row>
     <row r="9">
@@ -701,10 +701,10 @@
         <v>285.7700884429001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1559267540560089</v>
+        <v>0.1559267540560468</v>
       </c>
       <c r="I9" t="n">
-        <v>6422.261358148798</v>
+        <v>6422.261358150984</v>
       </c>
     </row>
     <row r="10">
@@ -730,10 +730,10 @@
         <v>310.5902366509021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07316208359586489</v>
+        <v>0.07316208359588167</v>
       </c>
       <c r="I10" t="n">
-        <v>6939.687666983355</v>
+        <v>6939.687666985345</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         <v>316.6519150685446</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01760028951844459</v>
+        <v>0.0176002895184484</v>
       </c>
       <c r="I11" t="n">
-        <v>7574.011062906781</v>
+        <v>7574.011062908604</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8042.201570596136</v>
+        <v>8042.201570596981</v>
       </c>
     </row>
     <row r="13">
@@ -817,10 +817,10 @@
         <v>316.4765292217521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01761218883289411</v>
+        <v>0.0176121888328939</v>
       </c>
       <c r="I13" t="n">
-        <v>7578.617293307429</v>
+        <v>7578.617293307337</v>
       </c>
     </row>
     <row r="14">
@@ -846,10 +846,10 @@
         <v>310.4525370000481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07322036407967164</v>
+        <v>0.07322036407967077</v>
       </c>
       <c r="I14" t="n">
-        <v>6945.375081410706</v>
+        <v>6945.37508141058</v>
       </c>
     </row>
     <row r="15">
@@ -875,10 +875,10 @@
         <v>285.8340165441664</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1560769887523364</v>
+        <v>0.1560769887523344</v>
       </c>
       <c r="I15" t="n">
-        <v>6427.390927548037</v>
+        <v>6427.390927547878</v>
       </c>
     </row>
     <row r="16">
@@ -904,10 +904,10 @@
         <v>275.5382703219476</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2770803374919985</v>
+        <v>0.2770803374919945</v>
       </c>
       <c r="I16" t="n">
-        <v>5655.971741421592</v>
+        <v>5655.971741421387</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>268.9338646196583</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4315482463607668</v>
+        <v>0.4315482463607597</v>
       </c>
       <c r="I17" t="n">
-        <v>4777.752341286987</v>
+        <v>4777.752341286832</v>
       </c>
     </row>
     <row r="18">
@@ -962,10 +962,10 @@
         <v>259.2332626855415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6170623473856358</v>
+        <v>0.617062347385624</v>
       </c>
       <c r="I18" t="n">
-        <v>3829.863976279769</v>
+        <v>3829.863976279866</v>
       </c>
     </row>
     <row r="19">
@@ -991,10 +991,10 @@
         <v>249.4921662742798</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8301501560122549</v>
+        <v>0.8301501560122395</v>
       </c>
       <c r="I19" t="n">
-        <v>2806.812004537444</v>
+        <v>2806.812004537547</v>
       </c>
     </row>
     <row r="20">
@@ -1020,10 +1020,10 @@
         <v>251.2638234148226</v>
       </c>
       <c r="H20" t="n">
-        <v>1.06555460677204</v>
+        <v>1.065554606772022</v>
       </c>
       <c r="I20" t="n">
-        <v>1726.781617422525</v>
+        <v>1726.781617422434</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>222.1462024803066</v>
       </c>
       <c r="H21" t="n">
-        <v>1.315403179277943</v>
+        <v>1.31540317927792</v>
       </c>
       <c r="I21" t="n">
-        <v>758.0860525484915</v>
+        <v>758.0860525484778</v>
       </c>
     </row>
     <row r="22">
@@ -1078,10 +1078,10 @@
         <v>175.0694916177185</v>
       </c>
       <c r="H22" t="n">
-        <v>1.572225661875605</v>
+        <v>1.572225661875577</v>
       </c>
       <c r="I22" t="n">
-        <v>180.9722551925173</v>
+        <v>180.972255192413</v>
       </c>
     </row>
   </sheetData>

--- a/pav_3g_results_nodal.xlsx
+++ b/pav_3g_results_nodal.xlsx
@@ -498,10 +498,10 @@
         <v>175.0122446297537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.570385316679309</v>
+        <v>1.570385316679525</v>
       </c>
       <c r="I2" t="n">
-        <v>180.8354183511697</v>
+        <v>180.8354183512872</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         <v>222.093703762316</v>
       </c>
       <c r="H3" t="n">
-        <v>1.313863758585013</v>
+        <v>1.313863758585202</v>
       </c>
       <c r="I3" t="n">
-        <v>757.4603053344842</v>
+        <v>757.4603053344654</v>
       </c>
     </row>
     <row r="4">
@@ -556,10 +556,10 @@
         <v>251.2343935383294</v>
       </c>
       <c r="H4" t="n">
-        <v>1.064319297938854</v>
+        <v>1.064319297939017</v>
       </c>
       <c r="I4" t="n">
-        <v>1725.381238241695</v>
+        <v>1725.381238241533</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>249.423522340056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8292023139423903</v>
+        <v>0.8292023139425243</v>
       </c>
       <c r="I5" t="n">
-        <v>2804.581349573278</v>
+        <v>2804.581349573165</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>259.1901903256966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6163706244443756</v>
+        <v>0.61637062444448</v>
       </c>
       <c r="I6" t="n">
-        <v>3826.863154164561</v>
+        <v>3826.863154164696</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>268.8772083745512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4310773999481527</v>
+        <v>0.4310773999482284</v>
       </c>
       <c r="I7" t="n">
-        <v>4774.04539166473</v>
+        <v>4774.045391665164</v>
       </c>
     </row>
     <row r="8">
@@ -672,10 +672,10 @@
         <v>275.5460361003784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2767909289983425</v>
+        <v>0.2767909289983929</v>
       </c>
       <c r="I8" t="n">
-        <v>5651.632708628164</v>
+        <v>5651.632708628881</v>
       </c>
     </row>
     <row r="9">
@@ -701,10 +701,10 @@
         <v>285.7700884429001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1559267540560175</v>
+        <v>0.1559267540560468</v>
       </c>
       <c r="I9" t="n">
-        <v>6422.261358150013</v>
+        <v>6422.261358150984</v>
       </c>
     </row>
     <row r="10">
@@ -730,10 +730,10 @@
         <v>310.5902366509021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07316208359586752</v>
+        <v>0.07316208359588167</v>
       </c>
       <c r="I10" t="n">
-        <v>6939.687666984149</v>
+        <v>6939.687666985345</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         <v>316.6519150685446</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01760028951844495</v>
+        <v>0.0176002895184484</v>
       </c>
       <c r="I11" t="n">
-        <v>7574.011062907172</v>
+        <v>7574.011062908604</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8042.2015705964</v>
+        <v>8042.201570596981</v>
       </c>
     </row>
     <row r="13">
@@ -817,10 +817,10 @@
         <v>316.4765292217521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01761218883289479</v>
+        <v>0.0176121888328939</v>
       </c>
       <c r="I13" t="n">
-        <v>7578.617293307808</v>
+        <v>7578.617293307337</v>
       </c>
     </row>
     <row r="14">
@@ -846,10 +846,10 @@
         <v>310.4525370000481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07322036407967489</v>
+        <v>0.07322036407967077</v>
       </c>
       <c r="I14" t="n">
-        <v>6945.375081411192</v>
+        <v>6945.37508141058</v>
       </c>
     </row>
     <row r="15">
@@ -875,10 +875,10 @@
         <v>285.8340165441664</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1560769887523443</v>
+        <v>0.1560769887523344</v>
       </c>
       <c r="I15" t="n">
-        <v>6427.390927548613</v>
+        <v>6427.390927547878</v>
       </c>
     </row>
     <row r="16">
@@ -904,10 +904,10 @@
         <v>275.5382703219476</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2770803374920145</v>
+        <v>0.2770803374919945</v>
       </c>
       <c r="I16" t="n">
-        <v>5655.971741422171</v>
+        <v>5655.971741421387</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>268.9338646196583</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4315482463607944</v>
+        <v>0.4315482463607597</v>
       </c>
       <c r="I17" t="n">
-        <v>4777.752341287575</v>
+        <v>4777.752341286832</v>
       </c>
     </row>
     <row r="18">
@@ -962,10 +962,10 @@
         <v>259.2332626855415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6170623473856787</v>
+        <v>0.617062347385624</v>
       </c>
       <c r="I18" t="n">
-        <v>3829.863976280421</v>
+        <v>3829.863976279866</v>
       </c>
     </row>
     <row r="19">
@@ -991,10 +991,10 @@
         <v>249.4921662742798</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8301501560123178</v>
+        <v>0.8301501560122395</v>
       </c>
       <c r="I19" t="n">
-        <v>2806.812004537876</v>
+        <v>2806.812004537547</v>
       </c>
     </row>
     <row r="20">
@@ -1020,10 +1020,10 @@
         <v>251.2638234148226</v>
       </c>
       <c r="H20" t="n">
-        <v>1.065554606772127</v>
+        <v>1.065554606772022</v>
       </c>
       <c r="I20" t="n">
-        <v>1726.781617422622</v>
+        <v>1726.781617422434</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>222.1462024803066</v>
       </c>
       <c r="H21" t="n">
-        <v>1.315403179278054</v>
+        <v>1.31540317927792</v>
       </c>
       <c r="I21" t="n">
-        <v>758.0860525485501</v>
+        <v>758.0860525484778</v>
       </c>
     </row>
     <row r="22">
@@ -1078,10 +1078,10 @@
         <v>175.0694916177185</v>
       </c>
       <c r="H22" t="n">
-        <v>1.572225661875739</v>
+        <v>1.572225661875577</v>
       </c>
       <c r="I22" t="n">
-        <v>180.9722551925083</v>
+        <v>180.972255192413</v>
       </c>
     </row>
   </sheetData>
